--- a/gama-project/includes/010tissus.xlsx
+++ b/gama-project/includes/010tissus.xlsx
@@ -25,34 +25,34 @@
     <t xml:space="preserve">t/m²</t>
   </si>
   <si>
-    <t xml:space="preserve">FERME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pavillon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">activité</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maisons jumelées ou groupées</t>
-  </si>
-  <si>
-    <t xml:space="preserve">urbain continu dense</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maisons de villes mitoyennes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maisons de villes hautes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">collectifs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">équipement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">moyenne</t>
+    <t xml:space="preserve">tissu de ferme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tissu pavillonaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tissu activite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tissu de maisons jumelees ou groupees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tissu urbain continu dense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tissu de maison de ville</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tissu maison de villes haute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tissu collectif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tissu equipement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moyenne</t>
   </si>
   <si>
     <t xml:space="preserve">DI</t>
@@ -673,9 +673,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -782,7 +783,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -805,6 +806,10 @@
     </xf>
     <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -842,13 +847,13 @@
   </sheetPr>
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2:N39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="32.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="32.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="101.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="23.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="20.94"/>
@@ -862,7 +867,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="13" style="1" width="32.71"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -895,6 +900,10 @@
       </c>
       <c r="L1" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="N1" s="6" t="str">
+        <f aca="false">A1&amp;","&amp;B1&amp;","&amp;C1&amp;","&amp;D1&amp;","&amp;E1&amp;","&amp;F1&amp;","&amp;G1&amp;","&amp;H1&amp;","&amp;I1&amp;","&amp;J1&amp;","&amp;K1&amp;","&amp;L1</f>
+        <v>,t/m²,tissu de ferme,tissu pavillonaire,tissu activite,tissu de maisons jumelees ou groupees,tissu urbain continu dense,tissu de maison de ville,tissu maison de villes haute,tissu collectif,tissu equipement,Moyenne</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -907,22 +916,22 @@
       <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="6" t="s">
+      <c r="F2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>14</v>
       </c>
       <c r="J2" s="3" t="s">
@@ -931,10 +940,10 @@
       <c r="K2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="0" t="str">
+      <c r="N2" s="6" t="str">
         <f aca="false">A2&amp;","&amp;B2&amp;","&amp;C2&amp;","&amp;D2&amp;","&amp;E2&amp;","&amp;F2&amp;","&amp;G2&amp;","&amp;H2&amp;","&amp;I2&amp;","&amp;J2&amp;","&amp;K2&amp;","&amp;L2</f>
         <v>DI,Melanges bitumineux ,0.00161737572538296,0.0,0.00323475145076593,0.0,0.0,0.0,0.0,0.00323475145076593,0.00323475145076593,0.00107825048358864</v>
       </c>
@@ -946,37 +955,37 @@
       <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="N3" s="0" t="str">
+      <c r="C3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="6" t="str">
         <f aca="false">A3&amp;","&amp;B3&amp;","&amp;C3&amp;","&amp;D3&amp;","&amp;E3&amp;","&amp;F3&amp;","&amp;G3&amp;","&amp;H3&amp;","&amp;I3&amp;","&amp;J3&amp;","&amp;K3&amp;","&amp;L3</f>
         <v>DI,Terres  non polluees ,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0</v>
       </c>
@@ -994,13 +1003,13 @@
       <c r="D4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="8" t="s">
         <v>23</v>
       </c>
       <c r="H4" s="3" t="s">
@@ -1015,10 +1024,10 @@
       <c r="K4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="0" t="str">
+      <c r="N4" s="6" t="str">
         <f aca="false">A4&amp;","&amp;B4&amp;","&amp;C4&amp;","&amp;D4&amp;","&amp;E4&amp;","&amp;F4&amp;","&amp;G4&amp;","&amp;H4&amp;","&amp;I4&amp;","&amp;J4&amp;","&amp;K4&amp;","&amp;L4</f>
         <v>DI,Beton et pierre ,0.920036996780847,0.879970509727624,1.25544161608175,0.584632377479939,1.17530864197531,0.879970509727624,0.879970509727624,1.25544161608175,1.25544161608175,1.005127545179</v>
       </c>
@@ -1036,13 +1045,13 @@
       <c r="D5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="8" t="s">
         <v>30</v>
       </c>
       <c r="H5" s="3" t="s">
@@ -1057,10 +1066,10 @@
       <c r="K5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="N5" s="0" t="str">
+      <c r="N5" s="6" t="str">
         <f aca="false">A5&amp;","&amp;B5&amp;","&amp;C5&amp;","&amp;D5&amp;","&amp;E5&amp;","&amp;F5&amp;","&amp;G5&amp;","&amp;H5&amp;","&amp;I5&amp;","&amp;J5&amp;","&amp;K5&amp;","&amp;L5</f>
         <v>DI,Tuiles et briques ,0.789395821900996,1.85283225303062,0.461604503995904,1.11718713980609,2.58847736625514,1.85283225303062,1.85283225303062,0.461604503995904,0.461604503995904,1.38908967001905</v>
       </c>
@@ -1078,13 +1087,13 @@
       <c r="D6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="8" t="s">
         <v>37</v>
       </c>
       <c r="H6" s="3" t="s">
@@ -1099,10 +1108,10 @@
       <c r="K6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="N6" s="0" t="str">
+      <c r="N6" s="6" t="str">
         <f aca="false">A6&amp;","&amp;B6&amp;","&amp;C6&amp;","&amp;D6&amp;","&amp;E6&amp;","&amp;F6&amp;","&amp;G6&amp;","&amp;H6&amp;","&amp;I6&amp;","&amp;J6&amp;","&amp;K6&amp;","&amp;L6</f>
         <v>DI,Ceramique ,0.00597328142246643,0.0202557747468052,0.00517986931840062,0.00676669352653223,0.0337448559670782,0.0202557747468052,0.0202557747468052,0.00517986931840062,0.00517986931840062,0.015230472937337</v>
       </c>
@@ -1120,19 +1129,19 @@
       <c r="D7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="6" t="s">
+      <c r="H7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="J7" s="3" t="s">
@@ -1141,10 +1150,10 @@
       <c r="K7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="N7" s="0" t="str">
+      <c r="N7" s="6" t="str">
         <f aca="false">A7&amp;","&amp;B7&amp;","&amp;C7&amp;","&amp;D7&amp;","&amp;E7&amp;","&amp;F7&amp;","&amp;G7&amp;","&amp;H7&amp;","&amp;I7&amp;","&amp;J7&amp;","&amp;K7&amp;","&amp;L7</f>
         <v>DI,Verre sans menuiserie ,0.00334477609245826,0.005,0.00168955218491651,0.005,0.005,0.0,0.0,0.00168955218491651,0.00168955218491651,0.00389651739497217</v>
       </c>
@@ -1162,13 +1171,13 @@
       <c r="D8" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="8" t="s">
         <v>49</v>
       </c>
       <c r="H8" s="3" t="s">
@@ -1183,10 +1192,10 @@
       <c r="K8" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="L8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="N8" s="0" t="str">
+      <c r="N8" s="6" t="str">
         <f aca="false">A8&amp;","&amp;B8&amp;","&amp;C8&amp;","&amp;D8&amp;","&amp;E8&amp;","&amp;F8&amp;","&amp;G8&amp;","&amp;H8&amp;","&amp;I8&amp;","&amp;J8&amp;","&amp;K8&amp;","&amp;L8</f>
         <v>DI,Melanges de DI listes cidessus sans DND ,0.027403946618298,0.0418170854271357,0.0129737223823247,0.0418341708542714,0.0418,0.0418170854271357,0.0418170854271357,0.0129737223823247,0.0129737223823247,0.0322026310788653</v>
       </c>
@@ -1204,13 +1213,13 @@
       <c r="D9" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -1225,10 +1234,10 @@
       <c r="K9" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="L9" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="N9" s="0" t="str">
+      <c r="N9" s="6" t="str">
         <f aca="false">A9&amp;","&amp;B9&amp;","&amp;C9&amp;","&amp;D9&amp;","&amp;E9&amp;","&amp;F9&amp;","&amp;G9&amp;","&amp;H9&amp;","&amp;I9&amp;","&amp;J9&amp;","&amp;K9&amp;","&amp;L9</f>
         <v>DI,Autres dechets inertes,0.00584975065076318,0.00200446677833613,0.00769056774485411,0.00400893355667225,0.0,0.00200446677833613,0.00200446677833613,0.00769056774485411,0.00769056774485411,0.00389983376717545</v>
       </c>
@@ -1246,13 +1255,13 @@
       <c r="D10" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="8" t="s">
         <v>63</v>
       </c>
       <c r="H10" s="3" t="s">
@@ -1267,10 +1276,10 @@
       <c r="K10" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="L10" s="6" t="s">
+      <c r="L10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="N10" s="0" t="str">
+      <c r="N10" s="6" t="str">
         <f aca="false">A10&amp;","&amp;B10&amp;","&amp;C10&amp;","&amp;D10&amp;","&amp;E10&amp;","&amp;F10&amp;","&amp;G10&amp;","&amp;H10&amp;","&amp;I10&amp;","&amp;J10&amp;","&amp;K10&amp;","&amp;L10</f>
         <v>DND,Plaques et carreaux ,0.0300453075827475,0.0293968602350826,0.0366878411973873,0.0234027739681076,0.0353909465020576,0.0293968602350826,0.0293968602350826,0.0366878411973873,0.0366878411973873,0.0318271872225175</v>
       </c>
@@ -1288,13 +1297,13 @@
       <c r="D11" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="8" t="s">
         <v>70</v>
       </c>
       <c r="H11" s="3" t="s">
@@ -1309,10 +1318,10 @@
       <c r="K11" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="L11" s="6" t="s">
+      <c r="L11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="N11" s="0" t="str">
+      <c r="N11" s="6" t="str">
         <f aca="false">A11&amp;","&amp;B11&amp;","&amp;C11&amp;","&amp;D11&amp;","&amp;E11&amp;","&amp;F11&amp;","&amp;G11&amp;","&amp;H11&amp;","&amp;I11&amp;","&amp;J11&amp;","&amp;K11&amp;","&amp;L11</f>
         <v>DND,Enduit platre + support inerte ,0.00451548012508151,0.00119952540480179,0.00783190944055944,0.00119905080960357,0.0012,0.00119952540480179,0.00119952540480179,0.00783190944055944,0.00783190944055944,0.00341032008338767</v>
       </c>
@@ -1330,13 +1339,13 @@
       <c r="D12" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="8" t="s">
         <v>77</v>
       </c>
       <c r="H12" s="3" t="s">
@@ -1351,10 +1360,10 @@
       <c r="K12" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="L12" s="6" t="s">
+      <c r="L12" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="N12" s="0" t="str">
+      <c r="N12" s="6" t="str">
         <f aca="false">A12&amp;","&amp;B12&amp;","&amp;C12&amp;","&amp;D12&amp;","&amp;E12&amp;","&amp;F12&amp;","&amp;G12&amp;","&amp;H12&amp;","&amp;I12&amp;","&amp;J12&amp;","&amp;K12&amp;","&amp;L12</f>
         <v>DND,Complexes platre + isolant,0.00100371012648791,0.000924595198213289,0.00105822985654924,0.000949190396426577,0.0009,0.000924595198213289,0.000924595198213289,0.00105822985654924,0.00105822985654924,0.000969140084325273</v>
       </c>
@@ -1369,22 +1378,22 @@
       <c r="C13" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="7" t="s">
+      <c r="D13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="6" t="s">
+      <c r="F13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="7" t="s">
         <v>14</v>
       </c>
       <c r="J13" s="3" t="s">
@@ -1393,10 +1402,10 @@
       <c r="K13" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="L13" s="6" t="s">
+      <c r="L13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="N13" s="0" t="str">
+      <c r="N13" s="6" t="str">
         <f aca="false">A13&amp;","&amp;B13&amp;","&amp;C13&amp;","&amp;D13&amp;","&amp;E13&amp;","&amp;F13&amp;","&amp;G13&amp;","&amp;H13&amp;","&amp;I13&amp;","&amp;J13&amp;","&amp;K13&amp;","&amp;L13</f>
         <v>DND,Bois Non traites ,0.00656908359371125,0.0,0.0131381671874225,0.0,0.0,0.0,0.0,0.0131381671874225,0.0131381671874225,0.00437938906247417</v>
       </c>
@@ -1414,13 +1423,13 @@
       <c r="D14" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="8" t="s">
         <v>88</v>
       </c>
       <c r="H14" s="3" t="s">
@@ -1435,10 +1444,10 @@
       <c r="K14" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="L14" s="6" t="s">
+      <c r="L14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="N14" s="0" t="str">
+      <c r="N14" s="6" t="str">
         <f aca="false">A14&amp;","&amp;B14&amp;","&amp;C14&amp;","&amp;D14&amp;","&amp;E14&amp;","&amp;F14&amp;","&amp;G14&amp;","&amp;H14&amp;","&amp;I14&amp;","&amp;J14&amp;","&amp;K14&amp;","&amp;L14</f>
         <v>DND,Bois Faiblement adjuvantes ,0.0300572003465422,0.0487927906656157,0.00368108273633859,0.0564333179567458,0.0411522633744856,0.0487927906656157,0.0487927906656157,0.00368108273633859,0.00368108273633859,0.03375555468919</v>
       </c>
@@ -1453,22 +1462,22 @@
       <c r="C15" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="7" t="s">
+      <c r="D15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="6" t="s">
+      <c r="F15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="7" t="s">
         <v>14</v>
       </c>
       <c r="J15" s="3" t="s">
@@ -1477,10 +1486,10 @@
       <c r="K15" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="L15" s="6" t="s">
+      <c r="L15" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="N15" s="0" t="str">
+      <c r="N15" s="6" t="str">
         <f aca="false">A15&amp;","&amp;B15&amp;","&amp;C15&amp;","&amp;D15&amp;","&amp;E15&amp;","&amp;F15&amp;","&amp;G15&amp;","&amp;H15&amp;","&amp;I15&amp;","&amp;J15&amp;","&amp;K15&amp;","&amp;L15</f>
         <v>DND,Fenetres et autres ouvertures vitrees ,0.000189760638297872,0.0,0.000379521276595745,0.0,0.0,0.0,0.0,0.000379521276595745,0.000379521276595745,0.000126507092198582</v>
       </c>
@@ -1498,13 +1507,13 @@
       <c r="D16" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="8" t="s">
         <v>99</v>
       </c>
       <c r="H16" s="3" t="s">
@@ -1519,10 +1528,10 @@
       <c r="K16" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="L16" s="6" t="s">
+      <c r="L16" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="N16" s="0" t="str">
+      <c r="N16" s="6" t="str">
         <f aca="false">A16&amp;","&amp;B16&amp;","&amp;C16&amp;","&amp;D16&amp;","&amp;E16&amp;","&amp;F16&amp;","&amp;G16&amp;","&amp;H16&amp;","&amp;I16&amp;","&amp;J16&amp;","&amp;K16&amp;","&amp;L16</f>
         <v>DND,Metaux,0.0382793341415591,0.00107949915648524,0.0754996699701476,0.00105899831297049,0.0011,0.00107949915648524,0.00107949915648524,0.0754996699701476,0.0754996699701476,0.0258862227610394</v>
       </c>
@@ -1531,7 +1540,7 @@
       <c r="A17" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="9" t="s">
         <v>101</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -1540,13 +1549,13 @@
       <c r="D17" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H17" s="3" t="s">
@@ -1561,10 +1570,10 @@
       <c r="K17" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="L17" s="6" t="s">
+      <c r="L17" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="N17" s="0" t="str">
+      <c r="N17" s="6" t="str">
         <f aca="false">A17&amp;","&amp;B17&amp;","&amp;C17&amp;","&amp;D17&amp;","&amp;E17&amp;","&amp;F17&amp;","&amp;G17&amp;","&amp;H17&amp;","&amp;I17&amp;","&amp;J17&amp;","&amp;K17&amp;","&amp;L17</f>
         <v>DND,Plastiques-exPVC,0.000548461267424614,0.00000418760469011725,0.00108854732546899,0.00000837520938023451,0.0,0.00000418760469011725,0.00000418760469011725,0.00108854732546899,0.00108854732546899,0.000365640844949743</v>
       </c>
@@ -1582,13 +1591,13 @@
       <c r="D18" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="8" t="s">
         <v>112</v>
       </c>
       <c r="H18" s="3" t="s">
@@ -1603,10 +1612,10 @@
       <c r="K18" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="L18" s="6" t="s">
+      <c r="L18" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="N18" s="0" t="str">
+      <c r="N18" s="6" t="str">
         <f aca="false">A18&amp;","&amp;B18&amp;","&amp;C18&amp;","&amp;D18&amp;","&amp;E18&amp;","&amp;F18&amp;","&amp;G18&amp;","&amp;H18&amp;","&amp;I18&amp;","&amp;J18&amp;","&amp;K18&amp;","&amp;L18</f>
         <v>DND,Isolants-Laines minerales ,0.00197360473479927,0.000418453378001117,0.0035103027135963,0.000436906756002233,0.0004,0.000418453378001117,0.000418453378001117,0.0035103027135963,0.0035103027135963,0.00144906982319951</v>
       </c>
@@ -1624,13 +1633,13 @@
       <c r="D19" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="8" t="s">
         <v>119</v>
       </c>
       <c r="H19" s="3" t="s">
@@ -1645,10 +1654,10 @@
       <c r="K19" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="L19" s="6" t="s">
+      <c r="L19" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="N19" s="0" t="str">
+      <c r="N19" s="6" t="str">
         <f aca="false">A19&amp;","&amp;B19&amp;","&amp;C19&amp;","&amp;D19&amp;","&amp;E19&amp;","&amp;F19&amp;","&amp;G19&amp;","&amp;H19&amp;","&amp;I19&amp;","&amp;J19&amp;","&amp;K19&amp;","&amp;L19</f>
         <v>DND,Isolants-Plastiques alveolaires ,0.000651346324389603,0.0000932719151312116,0.00121614881851678,0.0000865438302624232,0.0001,0.0000932719151312116,0.0000932719151312116,0.00121614881851678,0.00121614881851678,0.000467564216259736</v>
       </c>
@@ -1666,13 +1675,13 @@
       <c r="D20" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="8" t="s">
         <v>126</v>
       </c>
       <c r="H20" s="3" t="s">
@@ -1687,10 +1696,10 @@
       <c r="K20" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="L20" s="6" t="s">
+      <c r="L20" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="N20" s="0" t="str">
+      <c r="N20" s="6" t="str">
         <f aca="false">A20&amp;","&amp;B20&amp;","&amp;C20&amp;","&amp;D20&amp;","&amp;E20&amp;","&amp;F20&amp;","&amp;G20&amp;","&amp;H20&amp;","&amp;I20&amp;","&amp;J20&amp;","&amp;K20&amp;","&amp;L20</f>
         <v>DND,Isolants-Autres ,0.00109294323825607,0.00218013062044712,0.0000256252356178843,0.00216026124089425,0.0022,0.00218013062044712,0.00218013062044712,0.0000256252356178843,0.0000256252356178843,0.00146196215883738</v>
       </c>
@@ -1708,13 +1717,13 @@
       <c r="D21" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H21" s="3" t="s">
@@ -1729,10 +1738,10 @@
       <c r="K21" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="L21" s="6" t="s">
+      <c r="L21" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="N21" s="0" t="str">
+      <c r="N21" s="6" t="str">
         <f aca="false">A21&amp;","&amp;B21&amp;","&amp;C21&amp;","&amp;D21&amp;","&amp;E21&amp;","&amp;F21&amp;","&amp;G21&amp;","&amp;H21&amp;","&amp;I21&amp;","&amp;J21&amp;","&amp;K21&amp;","&amp;L21</f>
         <v>DND,Complexe d'etancheite sans goudron,0.00704428400648075,0.00660944967894469,0.000869668655072113,0.0132188993578894,0.0,0.00660944967894469,0.00660944967894469,0.000869668655072113,0.000869668655072113,0.00469618933765383</v>
       </c>
@@ -1750,13 +1759,13 @@
       <c r="D22" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G22" s="8" t="s">
         <v>119</v>
       </c>
       <c r="H22" s="3" t="s">
@@ -1771,10 +1780,10 @@
       <c r="K22" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="L22" s="6" t="s">
+      <c r="L22" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="N22" s="0" t="str">
+      <c r="N22" s="6" t="str">
         <f aca="false">A22&amp;","&amp;B22&amp;","&amp;C22&amp;","&amp;D22&amp;","&amp;E22&amp;","&amp;F22&amp;","&amp;G22&amp;","&amp;H22&amp;","&amp;I22&amp;","&amp;J22&amp;","&amp;K22&amp;","&amp;L22</f>
         <v>DND,Revetements de sols ,0.00157524063254387,0.000115605806811837,0.00301926965146407,0.000131211613623674,0.0001,0.000115605806811837,0.000115605806811837,0.00301926965146407,0.00301926965146407,0.00108349375502925</v>
       </c>
@@ -1789,22 +1798,22 @@
       <c r="C23" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="7" t="s">
+      <c r="D23" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="F23" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I23" s="6" t="s">
+      <c r="F23" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="7" t="s">
         <v>14</v>
       </c>
       <c r="J23" s="3" t="s">
@@ -1813,10 +1822,10 @@
       <c r="K23" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="L23" s="6" t="s">
+      <c r="L23" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="N23" s="0" t="str">
+      <c r="N23" s="6" t="str">
         <f aca="false">A23&amp;","&amp;B23&amp;","&amp;C23&amp;","&amp;D23&amp;","&amp;E23&amp;","&amp;F23&amp;","&amp;G23&amp;","&amp;H23&amp;","&amp;I23&amp;","&amp;J23&amp;","&amp;K23&amp;","&amp;L23</f>
         <v>DND,DEEE non dangereux,0.000363750942471537,0.0,0.000727501884943075,0.0,0.0,0.0,0.0,0.000727501884943075,0.000727501884943075,0.000242500628314358</v>
       </c>
@@ -1834,13 +1843,13 @@
       <c r="D24" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="8" t="s">
         <v>149</v>
       </c>
       <c r="H24" s="3" t="s">
@@ -1855,10 +1864,10 @@
       <c r="K24" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="L24" s="6" t="s">
+      <c r="L24" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="N24" s="0" t="str">
+      <c r="N24" s="6" t="str">
         <f aca="false">A24&amp;","&amp;B24&amp;","&amp;C24&amp;","&amp;D24&amp;","&amp;E24&amp;","&amp;F24&amp;","&amp;G24&amp;","&amp;H24&amp;","&amp;I24&amp;","&amp;J24&amp;","&amp;K24&amp;","&amp;L24</f>
         <v>DND,Melanges de DND listes cidessus ,0.0118641268844221,0.0232031546621999,0.000521944444444444,0.0232063093243998,0.0232,0.0232031546621999,0.0232031546621999,0.000521944444444444,0.000521944444444444,0.0156427512562814</v>
       </c>
@@ -1870,37 +1879,37 @@
       <c r="B25" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K25" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="L25" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="N25" s="0" t="str">
+      <c r="C25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N25" s="6" t="str">
         <f aca="false">A25&amp;","&amp;B25&amp;","&amp;C25&amp;","&amp;D25&amp;","&amp;E25&amp;","&amp;F25&amp;","&amp;G25&amp;","&amp;H25&amp;","&amp;I25&amp;","&amp;J25&amp;","&amp;K25&amp;","&amp;L25</f>
         <v>DND,Vegetaux ,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0</v>
       </c>
@@ -1912,37 +1921,37 @@
       <c r="B26" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K26" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="L26" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="N26" s="0" t="str">
+      <c r="C26" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N26" s="6" t="str">
         <f aca="false">A26&amp;","&amp;B26&amp;","&amp;C26&amp;","&amp;D26&amp;","&amp;E26&amp;","&amp;F26&amp;","&amp;G26&amp;","&amp;H26&amp;","&amp;I26&amp;","&amp;J26&amp;","&amp;K26&amp;","&amp;L26</f>
         <v>DND,Terre vegetale ,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0</v>
       </c>
@@ -1960,13 +1969,13 @@
       <c r="D27" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="G27" s="8" t="s">
         <v>158</v>
       </c>
       <c r="H27" s="3" t="s">
@@ -1981,10 +1990,10 @@
       <c r="K27" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="L27" s="6" t="s">
+      <c r="L27" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="N27" s="0" t="str">
+      <c r="N27" s="6" t="str">
         <f aca="false">A27&amp;","&amp;B27&amp;","&amp;C27&amp;","&amp;D27&amp;","&amp;E27&amp;","&amp;F27&amp;","&amp;G27&amp;","&amp;H27&amp;","&amp;I27&amp;","&amp;J27&amp;","&amp;K27&amp;","&amp;L27</f>
         <v>DND,Autres DND,0.0761786746549128,0.0840702078436068,0.0229000611946286,0.129457288115197,0.0386831275720165,0.0840702078436068,0.0840702078436068,0.0229000611946286,0.0229000611946286,0.063680158960614</v>
       </c>
@@ -2002,13 +2011,13 @@
       <c r="D28" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="G28" s="8" t="s">
         <v>166</v>
       </c>
       <c r="H28" s="3" t="s">
@@ -2023,10 +2032,10 @@
       <c r="K28" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="L28" s="6" t="s">
+      <c r="L28" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="N28" s="0" t="str">
+      <c r="N28" s="6" t="str">
         <f aca="false">A28&amp;","&amp;B28&amp;","&amp;C28&amp;","&amp;D28&amp;","&amp;E28&amp;","&amp;F28&amp;","&amp;G28&amp;","&amp;H28&amp;","&amp;I28&amp;","&amp;J28&amp;","&amp;K28&amp;","&amp;L28</f>
         <v>DD,Amiante lie a des materiaux inertes ,0.0132308495855218,0.0113655599904732,0.0096318137579984,0.0168298854130452,0.00590123456790124,0.0113655599904732,0.0113655599904732,0.0096318137579984,0.0096318137579984,0.0107876445796483</v>
       </c>
@@ -2044,13 +2053,13 @@
       <c r="D29" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G29" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H29" s="3" t="s">
@@ -2065,10 +2074,10 @@
       <c r="K29" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="L29" s="6" t="s">
+      <c r="L29" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="N29" s="0" t="str">
+      <c r="N29" s="6" t="str">
         <f aca="false">A29&amp;","&amp;B29&amp;","&amp;C29&amp;","&amp;D29&amp;","&amp;E29&amp;","&amp;F29&amp;","&amp;G29&amp;","&amp;H29&amp;","&amp;I29&amp;","&amp;J29&amp;","&amp;K29&amp;","&amp;L29</f>
         <v>DD,Autres types d'amiante lie,0.00491061977525545,0.00328168620882189,0.00325786713286713,0.00656337241764378,0.0,0.00328168620882189,0.00328168620882189,0.00325786713286713,0.00325786713286713,0.00327374651683697</v>
       </c>
@@ -2083,22 +2092,22 @@
       <c r="C30" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" s="7" t="s">
+      <c r="D30" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="F30" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I30" s="6" t="s">
+      <c r="F30" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="7" t="s">
         <v>14</v>
       </c>
       <c r="J30" s="3" t="s">
@@ -2107,10 +2116,10 @@
       <c r="K30" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="L30" s="6" t="s">
+      <c r="L30" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="N30" s="0" t="str">
+      <c r="N30" s="6" t="str">
         <f aca="false">A30&amp;","&amp;B30&amp;","&amp;C30&amp;","&amp;D30&amp;","&amp;E30&amp;","&amp;F30&amp;","&amp;G30&amp;","&amp;H30&amp;","&amp;I30&amp;","&amp;J30&amp;","&amp;K30&amp;","&amp;L30</f>
         <v>DD,Amiante friable ,0.000779940555305316,0.0,0.00155988111061063,0.0,0.0,0.0,0.0,0.00155988111061063,0.00155988111061063,0.000519960370203544</v>
       </c>
@@ -2122,37 +2131,37 @@
       <c r="B31" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K31" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="L31" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="N31" s="0" t="str">
+      <c r="C31" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N31" s="6" t="str">
         <f aca="false">A31&amp;","&amp;B31&amp;","&amp;C31&amp;","&amp;D31&amp;","&amp;E31&amp;","&amp;F31&amp;","&amp;G31&amp;","&amp;H31&amp;","&amp;I31&amp;","&amp;J31&amp;","&amp;K31&amp;","&amp;L31</f>
         <v>DD,Melanges bitumineux contenant du goudron ,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0</v>
       </c>
@@ -2164,37 +2173,37 @@
       <c r="B32" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J32" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K32" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="L32" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="N32" s="0" t="str">
+      <c r="C32" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N32" s="6" t="str">
         <f aca="false">A32&amp;","&amp;B32&amp;","&amp;C32&amp;","&amp;D32&amp;","&amp;E32&amp;","&amp;F32&amp;","&amp;G32&amp;","&amp;H32&amp;","&amp;I32&amp;","&amp;J32&amp;","&amp;K32&amp;","&amp;L32</f>
         <v>DD,Complexe d'etancheite contenant du goudron ,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0</v>
       </c>
@@ -2212,13 +2221,13 @@
       <c r="D33" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="E33" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="7" t="s">
+      <c r="E33" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="G33" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H33" s="3" t="s">
@@ -2227,16 +2236,16 @@
       <c r="I33" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="J33" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K33" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="L33" s="6" t="s">
+      <c r="J33" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="N33" s="0" t="str">
+      <c r="N33" s="6" t="str">
         <f aca="false">A33&amp;","&amp;B33&amp;","&amp;C33&amp;","&amp;D33&amp;","&amp;E33&amp;","&amp;F33&amp;","&amp;G33&amp;","&amp;H33&amp;","&amp;I33&amp;","&amp;J33&amp;","&amp;K33&amp;","&amp;L33</f>
         <v>DD,Peintures contenant des  substances dangereuses ,0.00000209380234505863,0.00000209380234505863,0.0,0.00000418760469011725,0.0,0.00000209380234505863,0.00000209380234505863,0.0,0.0,0.00000139586823003908</v>
       </c>
@@ -2254,13 +2263,13 @@
       <c r="D34" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="E34" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" s="7" t="s">
+      <c r="E34" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="G34" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H34" s="3" t="s">
@@ -2269,16 +2278,16 @@
       <c r="I34" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="J34" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K34" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="L34" s="6" t="s">
+      <c r="J34" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="N34" s="0" t="str">
+      <c r="N34" s="6" t="str">
         <f aca="false">A34&amp;","&amp;B34&amp;","&amp;C34&amp;","&amp;D34&amp;","&amp;E34&amp;","&amp;F34&amp;","&amp;G34&amp;","&amp;H34&amp;","&amp;I34&amp;","&amp;J34&amp;","&amp;K34&amp;","&amp;L34</f>
         <v>DD,Bois traites contenant des substances dangereuses ,0.000050251256281407,0.000050251256281407,0.0,0.000100502512562814,0.0,0.000050251256281407,0.000050251256281407,0.0,0.0,0.000033500837520938</v>
       </c>
@@ -2290,37 +2299,37 @@
       <c r="B35" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J35" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K35" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="L35" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="N35" s="0" t="str">
+      <c r="C35" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N35" s="6" t="str">
         <f aca="false">A35&amp;","&amp;B35&amp;","&amp;C35&amp;","&amp;D35&amp;","&amp;E35&amp;","&amp;F35&amp;","&amp;G35&amp;","&amp;H35&amp;","&amp;I35&amp;","&amp;J35&amp;","&amp;K35&amp;","&amp;L35</f>
         <v>DD,Equipements de chauffage de climatisation ou frigorifiques contenant des fluides frigorigenes dangereux ,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0</v>
       </c>
@@ -2338,13 +2347,13 @@
       <c r="D36" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="F36" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" s="7" t="s">
+      <c r="F36" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" s="8" t="s">
         <v>192</v>
       </c>
       <c r="H36" s="3" t="s">
@@ -2359,10 +2368,10 @@
       <c r="K36" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="L36" s="6" t="s">
+      <c r="L36" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="N36" s="0" t="str">
+      <c r="N36" s="6" t="str">
         <f aca="false">A36&amp;","&amp;B36&amp;","&amp;C36&amp;","&amp;D36&amp;","&amp;E36&amp;","&amp;F36&amp;","&amp;G36&amp;","&amp;H36&amp;","&amp;I36&amp;","&amp;J36&amp;","&amp;K36&amp;","&amp;L36</f>
         <v>DD,Sources lumineuses ,0.0000174860268931694,0.0000329218106995885,0.0000349720537863388,0.0,0.000065843621399177,0.0000329218106995885,0.0000329218106995885,0.0000349720537863388,0.0000349720537863388,0.0000336052250618386</v>
       </c>
@@ -2380,13 +2389,13 @@
       <c r="D37" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E37" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="F37" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="G37" s="8" t="s">
         <v>199</v>
       </c>
       <c r="H37" s="3" t="s">
@@ -2401,10 +2410,10 @@
       <c r="K37" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="L37" s="6" t="s">
+      <c r="L37" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="N37" s="0" t="str">
+      <c r="N37" s="6" t="str">
         <f aca="false">A37&amp;","&amp;B37&amp;","&amp;C37&amp;","&amp;D37&amp;","&amp;E37&amp;","&amp;F37&amp;","&amp;G37&amp;","&amp;H37&amp;","&amp;I37&amp;","&amp;J37&amp;","&amp;K37&amp;","&amp;L37</f>
         <v>DD,Autres DEEE  contenant des substances dangereuses,0.000224118092832498,0.000286728589468005,0.000203997113724871,0.000244239071940124,0.000329218106995885,0.000286728589468005,0.000286728589468005,0.000203997113724871,0.000203997113724871,0.00025915143088696</v>
       </c>
@@ -2416,37 +2425,37 @@
       <c r="B38" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J38" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K38" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="L38" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="N38" s="0" t="str">
+      <c r="C38" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N38" s="6" t="str">
         <f aca="false">A38&amp;","&amp;B38&amp;","&amp;C38&amp;","&amp;D38&amp;","&amp;E38&amp;","&amp;F38&amp;","&amp;G38&amp;","&amp;H38&amp;","&amp;I38&amp;","&amp;J38&amp;","&amp;K38&amp;","&amp;L38</f>
         <v>DD,Terres contenant des substances dangereuses ,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0</v>
       </c>
@@ -2464,13 +2473,13 @@
       <c r="D39" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="F39" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="G39" s="7" t="s">
+      <c r="G39" s="8" t="s">
         <v>207</v>
       </c>
       <c r="H39" s="3" t="s">
@@ -2485,10 +2494,10 @@
       <c r="K39" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="L39" s="6" t="s">
+      <c r="L39" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="N39" s="0" t="str">
+      <c r="N39" s="6" t="str">
         <f aca="false">A39&amp;","&amp;B39&amp;","&amp;C39&amp;","&amp;D39&amp;","&amp;E39&amp;","&amp;F39&amp;","&amp;G39&amp;","&amp;H39&amp;","&amp;I39&amp;","&amp;J39&amp;","&amp;K39&amp;","&amp;L39</f>
         <v>DD,Autres DD,0.00266695513584286,0.00101302266477973,0.00334901720550075,0.00198489306618498,0.0000411522633744856,0.00101302266477973,0.00101302266477973,0.00334901720550075,0.00334901720550075,0.00179168751168674</v>
       </c>
@@ -2497,7 +2506,7 @@
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
-      <c r="L40" s="9"/>
+      <c r="L40" s="10"/>
     </row>
     <row r="41" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E41" s="3"/>
